--- a/URS/DbLayouts/L2-業務作業/ClOther.xlsx
+++ b/URS/DbLayouts/L2-業務作業/ClOther.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20952" windowHeight="7812"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="116">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -200,9 +200,6 @@
     <t>保證書字號</t>
   </si>
   <si>
-    <t>所有權人統編</t>
-  </si>
-  <si>
     <t>發行機構統編</t>
   </si>
   <si>
@@ -255,14 +252,6 @@
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有權人姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OwnerName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -588,16 +577,24 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>OwnerId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IssuingId = ,AND DocNo = ,AND OwnerId =</t>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶識別碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerCustUKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnerCustUKey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IssuingId = ,AND DocNo = ,AND OwnerCustUKey =</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1236,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1259,10 +1256,10 @@
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1272,7 +1269,7 @@
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>22</v>
@@ -1287,7 +1284,7 @@
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -1300,10 +1297,10 @@
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -1315,7 +1312,7 @@
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="14"/>
@@ -1328,7 +1325,7 @@
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -1340,7 +1337,9 @@
         <v>27</v>
       </c>
       <c r="B7" s="29"/>
-      <c r="C7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -1374,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>19</v>
@@ -1387,18 +1386,19 @@
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="20">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>19</v>
@@ -1408,15 +1408,16 @@
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="20">
+        <f t="shared" ref="A11:A42" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>20</v>
@@ -1431,7 +1432,8 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="20">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
@@ -1441,7 +1443,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="18">
         <v>8</v>
@@ -1450,7 +1452,8 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="20">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1460,7 +1463,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="18">
         <v>8</v>
@@ -1469,28 +1472,30 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="20">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E14" s="18">
         <v>2</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="20">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -1509,175 +1514,184 @@
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="20">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="18" t="s">
+      <c r="B16" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="18">
-        <v>10</v>
+      <c r="E16" s="20">
+        <v>32</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="20">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E17" s="18">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="20">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="18">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="20">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="E19" s="18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+    <row r="20" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="18">
-        <v>30</v>
-      </c>
-      <c r="F20" s="18"/>
+      <c r="B20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="20">
+        <v>5</v>
+      </c>
+      <c r="F20" s="20">
+        <v>2</v>
+      </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="18">
+    <row r="21" spans="1:7" ht="114" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>71</v>
+      <c r="B21" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>74</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="20">
-        <v>5</v>
-      </c>
-      <c r="F21" s="20">
+        <v>3</v>
+      </c>
+      <c r="E21" s="21">
         <v>2</v>
       </c>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" ht="114" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>77</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="22">
         <v>2</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="259.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>79</v>
-      </c>
       <c r="D23" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="22">
-        <v>2</v>
+        <v>47</v>
+      </c>
+      <c r="E23" s="20">
+        <v>8</v>
       </c>
       <c r="F23" s="20"/>
-      <c r="G23" s="20" t="s">
-        <v>103</v>
-      </c>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B24" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>81</v>
-      </c>
       <c r="D24" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="20">
         <v>8</v>
@@ -1685,34 +1699,38 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="81.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>83</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="20">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2</v>
       </c>
       <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="81.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>85</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>3</v>
@@ -1722,162 +1740,168 @@
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="81.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="D27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="20">
+        <v>8</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="C28" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E28" s="23">
         <v>2</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20">
-        <v>20</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="F28" s="20"/>
+      <c r="G28" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="20">
-        <v>8</v>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" ht="97.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20">
-        <v>21</v>
-      </c>
-      <c r="B29" s="26" t="s">
+      <c r="C29" s="27" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>91</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="20"/>
-      <c r="G29" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="27" t="s">
         <v>92</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>93</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7" ht="65.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G30" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" s="20"/>
-      <c r="G32" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B33" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>98</v>
-      </c>
       <c r="D33" s="20" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E33" s="23">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="23">
         <v>300</v>
@@ -1885,34 +1909,38 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="23">
-        <v>300</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-    </row>
-    <row r="36" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>3</v>
@@ -1922,139 +1950,133 @@
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="D37" s="18" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E37" s="18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F37" s="18"/>
-      <c r="G37" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>67</v>
-      </c>
       <c r="D38" s="18" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E38" s="18">
-        <v>8</v>
-      </c>
-      <c r="F38" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="F38" s="18">
+        <v>2</v>
+      </c>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="18">
-        <v>16</v>
-      </c>
-      <c r="F39" s="18">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
       <c r="G39" s="20"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E40" s="18">
+        <v>6</v>
+      </c>
       <c r="F40" s="18"/>
       <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="18">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="20"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E42" s="18">
+        <v>6</v>
+      </c>
       <c r="F42" s="18"/>
       <c r="G42" s="20"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="20">
-        <v>35</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="18">
-        <v>6</v>
-      </c>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
       <c r="F43" s="18"/>
       <c r="G43" s="20"/>
     </row>
@@ -2245,7 +2267,7 @@
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
-      <c r="G64" s="20"/>
+      <c r="G64" s="18"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="18"/>
@@ -2390,15 +2412,6 @@
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2420,9 +2433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2446,23 +2459,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>115</v>
